--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory SSP201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory SSP201718.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="36" windowWidth="15168" windowHeight="5400" firstSheet="13" activeTab="15"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="13" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="2" r:id="rId1"/>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="191">
   <si>
     <t>EmpName</t>
   </si>
@@ -484,9 +489,6 @@
     <t>DO NOT TOUCH PAYROLL AUTOMATION EMPLOYER_17/18</t>
   </si>
   <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\Statutory scenarios for 201718\\Automation Test Result for Statutory Scenarios201718.xlsx</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
@@ -599,14 +601,20 @@
   </si>
   <si>
     <t>21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F:\\Automation_TestResults\\Payroll_Tax_StatutoryScenarios\\Automation Test Result for Statutory Scenarios201718.xlsx
+</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_StatutoryScenarios\\Automation Test Result for Statutory Scenarios201718.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -739,6 +747,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -786,7 +797,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -819,9 +830,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -854,6 +882,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1036,16 +1081,16 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="39.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.26083984375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="30.33203125" collapsed="true"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1059,13 +1104,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>178</v>
-      </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1073,38 +1118,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>176</v>
-      </c>
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1112,7 +1157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1126,7 +1171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1140,7 +1185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1154,7 +1199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1168,7 +1213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1182,7 +1227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -1196,7 +1241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1210,7 +1255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1224,7 +1269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1238,7 +1283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1252,7 +1297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -1266,7 +1311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1280,7 +1325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -1294,7 +1339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1308,7 +1353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -1322,9 +1367,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>9</v>
@@ -1336,7 +1381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1350,7 +1395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1375,25 +1420,25 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="33.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="39.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="39.77734375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.77734375" collapsed="true"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -1407,7 +1452,7 @@
         <v>144</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>145</v>
@@ -1437,7 +1482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>150</v>
       </c>
@@ -1445,31 +1490,31 @@
         <v>10</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H2" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="J2" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>152</v>
-      </c>
       <c r="K2" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>4</v>
@@ -1477,8 +1522,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId4" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
-    <hyperlink ref="E2" r:id="rId5" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
+    <hyperlink ref="E2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
@@ -1490,25 +1535,25 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="32.77734375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="33.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="37.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.77734375" collapsed="true"/>
+    <col min="1" max="1" width="37" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="37.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -1522,7 +1567,7 @@
         <v>144</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>145</v>
@@ -1552,7 +1597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>150</v>
       </c>
@@ -1560,31 +1605,31 @@
         <v>10</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H2" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="J2" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>152</v>
-      </c>
       <c r="K2" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>4</v>
@@ -1592,8 +1637,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId3" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
-    <hyperlink ref="E2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
+    <hyperlink ref="E2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1604,26 +1649,26 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="1" max="1" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -1637,7 +1682,7 @@
         <v>144</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>145</v>
@@ -1667,7 +1712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>150</v>
       </c>
@@ -1675,31 +1720,31 @@
         <v>10</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H2" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="J2" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>152</v>
-      </c>
       <c r="K2" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>4</v>
@@ -1707,8 +1752,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId3" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
-    <hyperlink ref="E2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
+    <hyperlink ref="E2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1722,18 +1767,18 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="33.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="33.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="1" max="1" width="33.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="33.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1762,7 +1807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1773,7 +1818,7 @@
         <v>28</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>37</v>
@@ -1798,17 +1843,17 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="33.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="1" max="1" width="36.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1837,7 +1882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1848,7 +1893,7 @@
         <v>28</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>37</v>
@@ -1870,26 +1915,26 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="43.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.21875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="1" max="1" width="37.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -1903,7 +1948,7 @@
         <v>144</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>145</v>
@@ -1933,7 +1978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>150</v>
       </c>
@@ -1941,31 +1986,31 @@
         <v>10</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H2" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="J2" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="K2" s="17" t="s">
         <v>188</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>189</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>4</v>
@@ -1973,8 +2018,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId3" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
-    <hyperlink ref="E2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
+    <hyperlink ref="E2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1985,26 +2030,26 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="33.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="1" max="1" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -2018,7 +2063,7 @@
         <v>144</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>145</v>
@@ -2048,7 +2093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>150</v>
       </c>
@@ -2056,31 +2101,31 @@
         <v>10</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H2" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="J2" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>152</v>
-      </c>
       <c r="K2" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>4</v>
@@ -2088,8 +2133,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId3" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
-    <hyperlink ref="E2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
+    <hyperlink ref="E2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2103,15 +2148,15 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="1" max="1" width="36.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2134,7 +2179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -2160,23 +2205,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.77734375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -2367,7 +2412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>99</v>
       </c>
@@ -2554,8 +2599,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId3"/>
-    <hyperlink ref="D2" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2569,17 +2614,17 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2605,7 +2650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -2635,24 +2680,24 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.77734375" collapsed="true"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -2666,7 +2711,7 @@
         <v>144</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>145</v>
@@ -2696,7 +2741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>150</v>
       </c>
@@ -2704,31 +2749,31 @@
         <v>10</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
         <v>133</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F2" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="J2" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="K2" s="17" t="s">
         <v>156</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>157</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>4</v>
@@ -2736,8 +2781,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId3" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
-    <hyperlink ref="E2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
+    <hyperlink ref="E2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2748,24 +2793,24 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.77734375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="44.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="44.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -2779,7 +2824,7 @@
         <v>144</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>145</v>
@@ -2809,7 +2854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>150</v>
       </c>
@@ -2817,31 +2862,31 @@
         <v>10</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F2" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>155</v>
-      </c>
       <c r="H2" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="J2" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>152</v>
-      </c>
       <c r="K2" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>4</v>
@@ -2849,8 +2894,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId3" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
-    <hyperlink ref="E2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
+    <hyperlink ref="E2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2861,26 +2906,26 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="33.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.77734375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -2894,7 +2939,7 @@
         <v>144</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>145</v>
@@ -2924,7 +2969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>150</v>
       </c>
@@ -2932,31 +2977,31 @@
         <v>10</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="H2" s="17" t="s">
+      <c r="J2" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>152</v>
-      </c>
       <c r="K2" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>4</v>
@@ -2964,8 +3009,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId3" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
-    <hyperlink ref="E2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
+    <hyperlink ref="E2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2975,22 +3020,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="31.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3022,7 +3067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3033,10 +3078,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>37</v>
@@ -3057,22 +3102,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.21875" collapsed="true"/>
+    <col min="1" max="1" width="35" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3104,7 +3149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3115,10 +3160,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>37</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory SSP201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory SSP201718.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="13" activeTab="15"/>
+    <workbookView xWindow="384" yWindow="36" windowWidth="15168" windowHeight="5400" firstSheet="13" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="2" r:id="rId1"/>
@@ -34,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="190">
   <si>
     <t>EmpName</t>
   </si>
@@ -489,6 +484,9 @@
     <t>DO NOT TOUCH PAYROLL AUTOMATION EMPLOYER_17/18</t>
   </si>
   <si>
+    <t>F:\\Automation NI Reports\\HMRCTestData\Statutory scenarios for 201718\\Automation Test Result for Statutory Scenarios201718.xlsx</t>
+  </si>
+  <si>
     <t>All</t>
   </si>
   <si>
@@ -601,20 +599,14 @@
   </si>
   <si>
     <t>21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F:\\Automation_TestResults\\Payroll_Tax_StatutoryScenarios\\Automation Test Result for Statutory Scenarios201718.xlsx
-</t>
-  </si>
-  <si>
-    <t>F:\\Automation_TestResults\\Payroll_Tax_StatutoryScenarios\\Automation Test Result for Statutory Scenarios201718.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -747,9 +739,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -797,7 +786,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -830,26 +819,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -882,23 +854,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1081,16 +1036,16 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="39.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.26083984375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="30.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1104,12 +1059,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
@@ -1118,12 +1073,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
@@ -1132,23 +1087,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>4</v>
@@ -1157,7 +1112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1171,7 +1126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1185,7 +1140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1199,7 +1154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1213,7 +1168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1227,7 +1182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -1241,7 +1196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1255,7 +1210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1269,7 +1224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1283,7 +1238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1297,7 +1252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -1311,7 +1266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1325,7 +1280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -1339,7 +1294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1353,7 +1308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -1367,9 +1322,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>9</v>
@@ -1381,7 +1336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1395,7 +1350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1420,25 +1375,25 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.77734375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="20.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -1452,7 +1407,7 @@
         <v>144</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>145</v>
@@ -1482,7 +1437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>150</v>
       </c>
@@ -1490,31 +1445,31 @@
         <v>10</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G2" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>181</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>180</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>4</v>
@@ -1522,8 +1477,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
+    <hyperlink ref="C2" r:id="rId4" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
+    <hyperlink ref="E2" r:id="rId5" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
@@ -1535,25 +1490,25 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="37.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.77734375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="33.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="37.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="20.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -1567,7 +1522,7 @@
         <v>144</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>145</v>
@@ -1597,7 +1552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>150</v>
       </c>
@@ -1605,31 +1560,31 @@
         <v>10</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>164</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>4</v>
@@ -1637,8 +1592,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
+    <hyperlink ref="C2" r:id="rId3" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
+    <hyperlink ref="E2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1649,26 +1604,26 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="14.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -1682,7 +1637,7 @@
         <v>144</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>145</v>
@@ -1712,7 +1667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>150</v>
       </c>
@@ -1720,31 +1675,31 @@
         <v>10</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G2" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>164</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>4</v>
@@ -1752,8 +1707,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
+    <hyperlink ref="C2" r:id="rId3" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
+    <hyperlink ref="E2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1767,18 +1722,18 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="33.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="33.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="33.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.21875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1807,7 +1762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1818,7 +1773,7 @@
         <v>28</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>37</v>
@@ -1843,17 +1798,17 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="33.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1882,7 +1837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1893,7 +1848,7 @@
         <v>28</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>37</v>
@@ -1915,26 +1870,26 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="43.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.21875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -1948,7 +1903,7 @@
         <v>144</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>145</v>
@@ -1978,7 +1933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>150</v>
       </c>
@@ -1986,31 +1941,31 @@
         <v>10</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>4</v>
@@ -2018,8 +1973,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
+    <hyperlink ref="C2" r:id="rId3" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
+    <hyperlink ref="E2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2030,26 +1985,26 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.21875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -2063,7 +2018,7 @@
         <v>144</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>145</v>
@@ -2093,7 +2048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>150</v>
       </c>
@@ -2101,31 +2056,31 @@
         <v>10</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G2" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>164</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>4</v>
@@ -2133,8 +2088,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
+    <hyperlink ref="C2" r:id="rId3" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
+    <hyperlink ref="E2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2148,15 +2103,15 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2179,7 +2134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -2205,23 +2160,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK2"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -2412,7 +2367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>99</v>
       </c>
@@ -2599,8 +2554,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId3"/>
+    <hyperlink ref="D2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2614,17 +2569,17 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2650,7 +2605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -2680,24 +2635,24 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -2711,7 +2666,7 @@
         <v>144</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>145</v>
@@ -2741,7 +2696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>150</v>
       </c>
@@ -2749,31 +2704,31 @@
         <v>10</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D2" t="s">
         <v>133</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>4</v>
@@ -2781,8 +2736,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
+    <hyperlink ref="C2" r:id="rId3" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
+    <hyperlink ref="E2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2793,24 +2748,24 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="44.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.77734375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="44.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -2824,7 +2779,7 @@
         <v>144</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>145</v>
@@ -2854,7 +2809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>150</v>
       </c>
@@ -2862,31 +2817,31 @@
         <v>10</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>4</v>
@@ -2894,8 +2849,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
+    <hyperlink ref="C2" r:id="rId3" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
+    <hyperlink ref="E2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2906,26 +2861,26 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -2939,7 +2894,7 @@
         <v>144</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>145</v>
@@ -2969,7 +2924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>150</v>
       </c>
@@ -2977,31 +2932,31 @@
         <v>10</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>4</v>
@@ -3009,8 +2964,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
+    <hyperlink ref="C2" r:id="rId3" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
+    <hyperlink ref="E2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3020,22 +2975,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3067,7 +3022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3078,10 +3033,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>37</v>
@@ -3102,22 +3057,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.21875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3149,7 +3104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3160,10 +3115,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>37</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory SSP201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory SSP201718.xlsx
@@ -4,32 +4,32 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="36" windowWidth="15168" windowHeight="5400" firstSheet="13" activeTab="15"/>
+    <workbookView activeTab="15" firstSheet="13" windowHeight="5400" windowWidth="15168" xWindow="384" yWindow="36"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="2" r:id="rId1"/>
-    <sheet name="ResetData" sheetId="13" r:id="rId2"/>
-    <sheet name="CreateMaleEmployee" sheetId="14" r:id="rId3"/>
-    <sheet name="UpdateTaxCodeAndAnnualSalary" sheetId="15" r:id="rId4"/>
-    <sheet name="ProcessPayrolFor20FourWeeklySSP" sheetId="1" r:id="rId5"/>
-    <sheet name="ProcessPayrolFor24FourWeeklySSP" sheetId="3" r:id="rId6"/>
-    <sheet name="ProcessPayrolFor28FourWeeklySSP" sheetId="4" r:id="rId7"/>
-    <sheet name="CreateLeaveRequest" sheetId="9" r:id="rId8"/>
-    <sheet name="UpdateLeaveRecord" sheetId="10" r:id="rId9"/>
-    <sheet name="AverageWeeklyEarningsTestReport" sheetId="19" r:id="rId10"/>
-    <sheet name="ProcessPayrolFor32FourWeeklySSP" sheetId="6" r:id="rId11"/>
-    <sheet name="ProcessPayrolFor36FourWeeklySSP" sheetId="7" r:id="rId12"/>
-    <sheet name="CreateLeaveRequest2" sheetId="11" r:id="rId13"/>
-    <sheet name="UpdateLeaveRecord2" sheetId="12" r:id="rId14"/>
-    <sheet name="AverageWeeklyEarningsTestReprt2" sheetId="22" r:id="rId15"/>
-    <sheet name="ProcessPayrolFor40FourWeeklySSP" sheetId="8" r:id="rId16"/>
+    <sheet name="first" r:id="rId1" sheetId="2"/>
+    <sheet name="ResetData" r:id="rId2" sheetId="13"/>
+    <sheet name="CreateMaleEmployee" r:id="rId3" sheetId="14"/>
+    <sheet name="UpdateTaxCodeAndAnnualSalary" r:id="rId4" sheetId="15"/>
+    <sheet name="ProcessPayrolFor20FourWeeklySSP" r:id="rId5" sheetId="1"/>
+    <sheet name="ProcessPayrolFor24FourWeeklySSP" r:id="rId6" sheetId="3"/>
+    <sheet name="ProcessPayrolFor28FourWeeklySSP" r:id="rId7" sheetId="4"/>
+    <sheet name="CreateLeaveRequest" r:id="rId8" sheetId="9"/>
+    <sheet name="UpdateLeaveRecord" r:id="rId9" sheetId="10"/>
+    <sheet name="AverageWeeklyEarningsTestReport" r:id="rId10" sheetId="19"/>
+    <sheet name="ProcessPayrolFor32FourWeeklySSP" r:id="rId11" sheetId="6"/>
+    <sheet name="ProcessPayrolFor36FourWeeklySSP" r:id="rId12" sheetId="7"/>
+    <sheet name="CreateLeaveRequest2" r:id="rId13" sheetId="11"/>
+    <sheet name="UpdateLeaveRecord2" r:id="rId14" sheetId="12"/>
+    <sheet name="AverageWeeklyEarningsTestReprt2" r:id="rId15" sheetId="22"/>
+    <sheet name="ProcessPayrolFor40FourWeeklySSP" r:id="rId16" sheetId="8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="190">
   <si>
     <t>EmpName</t>
   </si>
@@ -677,64 +677,64 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="2"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -748,10 +748,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -909,7 +909,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -918,13 +918,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -934,7 +934,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -943,7 +943,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -952,7 +952,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -962,12 +962,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -998,7 +998,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1017,7 +1017,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1029,7 +1029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1041,7 +1041,7 @@
     <col min="1" max="1" customWidth="true" width="35.88671875" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="39.21875" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.26083984375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="30.33203125" collapsed="true"/>
   </cols>
   <sheetData>
@@ -1059,7 +1059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="27" r="2" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>177</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="22.8" r="3" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>171</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="24.6" r="4" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>173</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="31.2" r="5" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>175</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="25.8" r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="7" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="9" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="10" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="11" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="12" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="13" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="14" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="16" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="18" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="19" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="20" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="21" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>179</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="22" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1365,13 +1365,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -1393,7 +1393,7 @@
     <col min="11" max="11" customWidth="true" width="20.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>150</v>
       </c>
@@ -1477,16 +1477,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId4" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
-    <hyperlink ref="E2" r:id="rId5" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
+    <hyperlink display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS" r:id="rId4" ref="C2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId5" ref="E2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -1508,7 +1508,7 @@
     <col min="11" max="11" customWidth="true" width="20.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>150</v>
       </c>
@@ -1592,15 +1592,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId3" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
-    <hyperlink ref="E2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
+    <hyperlink display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS" r:id="rId3" ref="C2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId4" ref="E2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -1623,7 +1623,7 @@
     <col min="12" max="12" customWidth="true" width="14.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>150</v>
       </c>
@@ -1707,15 +1707,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId3" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
-    <hyperlink ref="E2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
+    <hyperlink display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS" r:id="rId3" ref="C2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId4" ref="E2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -1733,7 +1733,7 @@
     <col min="7" max="7" customWidth="true" width="12.21875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1786,12 +1786,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -1808,7 +1808,7 @@
     <col min="6" max="6" customWidth="true" width="19.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1861,12 +1861,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -1889,7 +1889,7 @@
     <col min="12" max="12" customWidth="true" width="12.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>150</v>
       </c>
@@ -1973,15 +1973,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId3" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
-    <hyperlink ref="E2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
+    <hyperlink display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS" r:id="rId3" ref="C2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId4" ref="E2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
@@ -2004,7 +2004,7 @@
     <col min="12" max="12" customWidth="true" width="12.21875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>150</v>
       </c>
@@ -2088,15 +2088,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId3" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
-    <hyperlink ref="E2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
+    <hyperlink display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS" r:id="rId3" ref="C2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId4" ref="E2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2111,7 +2111,7 @@
     <col min="4" max="4" customWidth="true" width="13.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="21.6" r="2" s="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -2152,12 +2152,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2176,7 +2176,7 @@
     <col min="8" max="8" customWidth="true" width="16.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="1" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>99</v>
       </c>
@@ -2554,15 +2554,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId3"/>
-    <hyperlink ref="D2" r:id="rId4"/>
+    <hyperlink r:id="rId3" ref="C2"/>
+    <hyperlink r:id="rId4" ref="D2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2579,7 +2579,7 @@
     <col min="6" max="6" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="21.6" r="2" s="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -2626,12 +2626,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -2652,7 +2652,7 @@
     <col min="11" max="11" customWidth="true" width="24.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>150</v>
       </c>
@@ -2736,15 +2736,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId3" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
-    <hyperlink ref="E2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
+    <hyperlink display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS" r:id="rId3" ref="C2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId4" ref="E2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -2765,7 +2765,7 @@
     <col min="10" max="10" customWidth="true" width="13.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>150</v>
       </c>
@@ -2849,15 +2849,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId3" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
-    <hyperlink ref="E2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
+    <hyperlink display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS" r:id="rId3" ref="C2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId4" ref="E2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
@@ -2880,7 +2880,7 @@
     <col min="12" max="12" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>150</v>
       </c>
@@ -2964,15 +2964,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId3" display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS"/>
-    <hyperlink ref="E2" r:id="rId4" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
+    <hyperlink display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS" r:id="rId3" ref="C2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId4" ref="E2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2990,7 +2990,7 @@
     <col min="7" max="7" customWidth="true" width="18.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3049,12 +3049,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3072,7 +3072,7 @@
     <col min="7" max="7" customWidth="true" width="24.21875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3131,6 +3131,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory SSP201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory SSP201718.xlsx
@@ -4,32 +4,32 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="15" firstSheet="13" windowHeight="5400" windowWidth="15168" xWindow="384" yWindow="36"/>
+    <workbookView xWindow="384" yWindow="36" windowWidth="15168" windowHeight="5400" firstSheet="13" activeTab="15"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="2"/>
-    <sheet name="ResetData" r:id="rId2" sheetId="13"/>
-    <sheet name="CreateMaleEmployee" r:id="rId3" sheetId="14"/>
-    <sheet name="UpdateTaxCodeAndAnnualSalary" r:id="rId4" sheetId="15"/>
-    <sheet name="ProcessPayrolFor20FourWeeklySSP" r:id="rId5" sheetId="1"/>
-    <sheet name="ProcessPayrolFor24FourWeeklySSP" r:id="rId6" sheetId="3"/>
-    <sheet name="ProcessPayrolFor28FourWeeklySSP" r:id="rId7" sheetId="4"/>
-    <sheet name="CreateLeaveRequest" r:id="rId8" sheetId="9"/>
-    <sheet name="UpdateLeaveRecord" r:id="rId9" sheetId="10"/>
-    <sheet name="AverageWeeklyEarningsTestReport" r:id="rId10" sheetId="19"/>
-    <sheet name="ProcessPayrolFor32FourWeeklySSP" r:id="rId11" sheetId="6"/>
-    <sheet name="ProcessPayrolFor36FourWeeklySSP" r:id="rId12" sheetId="7"/>
-    <sheet name="CreateLeaveRequest2" r:id="rId13" sheetId="11"/>
-    <sheet name="UpdateLeaveRecord2" r:id="rId14" sheetId="12"/>
-    <sheet name="AverageWeeklyEarningsTestReprt2" r:id="rId15" sheetId="22"/>
-    <sheet name="ProcessPayrolFor40FourWeeklySSP" r:id="rId16" sheetId="8"/>
+    <sheet name="first" sheetId="2" r:id="rId1"/>
+    <sheet name="ResetData" sheetId="13" r:id="rId2"/>
+    <sheet name="CreateMaleEmployee" sheetId="14" r:id="rId3"/>
+    <sheet name="UpdateTaxCodeAndAnnualSalary" sheetId="15" r:id="rId4"/>
+    <sheet name="ProcessPayrolFor20FourWeeklySSP" sheetId="1" r:id="rId5"/>
+    <sheet name="ProcessPayrolFor24FourWeeklySSP" sheetId="3" r:id="rId6"/>
+    <sheet name="ProcessPayrolFor28FourWeeklySSP" sheetId="4" r:id="rId7"/>
+    <sheet name="CreateLeaveRequest" sheetId="9" r:id="rId8"/>
+    <sheet name="UpdateLeaveRecord" sheetId="10" r:id="rId9"/>
+    <sheet name="AverageWeeklyEarningsTestReport" sheetId="19" r:id="rId10"/>
+    <sheet name="ProcessPayrolFor32FourWeeklySSP" sheetId="6" r:id="rId11"/>
+    <sheet name="ProcessPayrolFor36FourWeeklySSP" sheetId="7" r:id="rId12"/>
+    <sheet name="CreateLeaveRequest2" sheetId="11" r:id="rId13"/>
+    <sheet name="UpdateLeaveRecord2" sheetId="12" r:id="rId14"/>
+    <sheet name="AverageWeeklyEarningsTestReprt2" sheetId="22" r:id="rId15"/>
+    <sheet name="ProcessPayrolFor40FourWeeklySSP" sheetId="8" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="190">
   <si>
     <t>EmpName</t>
   </si>
@@ -481,18 +481,9 @@
     <t>PayrollView</t>
   </si>
   <si>
-    <t>DO NOT TOUCH PAYROLL AUTOMATION EMPLOYER_17/18</t>
-  </si>
-  <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\Statutory scenarios for 201718\\Automation Test Result for Statutory Scenarios201718.xlsx</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
-    <t>FourWeekly_Payroll</t>
-  </si>
-  <si>
     <t>Payroll Suite Statutory SSP201718.xlsx</t>
   </si>
   <si>
@@ -599,14 +590,22 @@
   </si>
   <si>
     <t>21</t>
+  </si>
+  <si>
+    <t>DONT TOUCH AUTO DIRSHPP EMPLOYER</t>
+  </si>
+  <si>
+    <t>DIRSSP_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_StatutoryScenarios 201718\\201718 Automation TestResult For Statutory Scenarios.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -677,64 +676,65 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="2"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -748,10 +748,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -909,7 +909,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -918,13 +918,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -934,7 +934,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -943,7 +943,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -952,7 +952,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -962,12 +962,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -998,7 +998,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1017,7 +1017,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1029,7 +1029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1038,11 +1038,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="39.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="30.33203125" collapsed="true"/>
+    <col min="1" max="1" width="35.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.21875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1059,12 +1059,12 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27" r="2" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
@@ -1073,37 +1073,37 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.8" r="3" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="24.6" r="4" s="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="31.2" r="5" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>4</v>
@@ -1112,7 +1112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="25.8" r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="9" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="10" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="12" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="13" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="14" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="16" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="18" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="19" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="20" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -1322,9 +1322,9 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="21" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>9</v>
@@ -1336,7 +1336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="22" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1365,35 +1365,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="33.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="39.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="39.77734375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.77734375" collapsed="true"/>
+    <col min="1" max="1" width="34.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.77734375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.77734375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>144</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>145</v>
@@ -1437,39 +1437,39 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>150</v>
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>187</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>153</v>
+      <c r="C2" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G2" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>185</v>
-      </c>
       <c r="J2" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>4</v>
@@ -1477,38 +1477,38 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS" r:id="rId4" ref="C2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId5" ref="E2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="32.77734375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="33.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="37.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.77734375" collapsed="true"/>
+    <col min="1" max="1" width="37" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.77734375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.21875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="37.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>144</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>145</v>
@@ -1552,39 +1552,39 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>150</v>
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>187</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>153</v>
+      <c r="C2" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>4</v>
@@ -1592,38 +1592,38 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS" r:id="rId3" ref="C2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId4" ref="E2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="1" max="1" width="34.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.77734375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.77734375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>144</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>145</v>
@@ -1667,39 +1667,39 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>150</v>
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>187</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>153</v>
+      <c r="C2" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>4</v>
@@ -1707,15 +1707,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS" r:id="rId3" ref="C2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId4" ref="E2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -1724,16 +1724,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="33.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="33.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="1" max="1" width="33.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="33.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>28</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>37</v>
@@ -1786,29 +1786,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="33.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="1" max="1" width="36.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="33.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>28</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>37</v>
@@ -1861,35 +1861,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="43.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.21875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="1" max="1" width="37.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.77734375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="43.21875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.44140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.21875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>144</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>145</v>
@@ -1933,39 +1933,39 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>150</v>
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>187</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>153</v>
+      <c r="C2" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>4</v>
@@ -1973,38 +1973,38 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS" r:id="rId3" ref="C2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId4" ref="E2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="33.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="1" max="1" width="34.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.21875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>144</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>145</v>
@@ -2048,39 +2048,39 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>150</v>
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>187</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>153</v>
+      <c r="C2" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>4</v>
@@ -2088,30 +2088,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS" r:id="rId3" ref="C2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId4" ref="E2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="1" max="1" width="36.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21.6" r="2" s="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -2152,12 +2152,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2166,17 +2166,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.77734375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.77734375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>99</v>
       </c>
@@ -2554,15 +2554,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId3" ref="C2"/>
-    <hyperlink r:id="rId4" ref="D2"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2571,15 +2571,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21.6" r="2" s="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -2626,146 +2626,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="35.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.77734375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS" r:id="rId3" ref="C2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId4" ref="E2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.77734375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="44.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="1" max="1" width="35.77734375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -2779,7 +2666,7 @@
         <v>144</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>145</v>
@@ -2809,39 +2696,152 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>150</v>
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>187</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>153</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.77734375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.21875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="44.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.77734375" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F2" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>154</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>157</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>4</v>
@@ -2849,38 +2849,38 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS" r:id="rId3" ref="C2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId4" ref="E2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="33.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.77734375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="1" max="1" width="35.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.77734375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>144</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>145</v>
@@ -2924,39 +2924,39 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>150</v>
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>187</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>153</v>
+      <c r="C2" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F2" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>154</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>157</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>4</v>
@@ -2964,33 +2964,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning--c.eu2.visual.force.com/a2Qb0000000E8gBEAS" r:id="rId3" ref="C2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId4" ref="E2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="31.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="1" max="1" width="34.77734375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3033,10 +3033,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>37</v>
@@ -3049,12 +3049,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3063,16 +3063,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.21875" collapsed="true"/>
+    <col min="1" max="1" width="35" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.21875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.21875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3115,10 +3115,10 @@
         <v>28</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>37</v>
@@ -3131,6 +3131,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory SSP201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory SSP201718.xlsx
@@ -4,32 +4,32 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="36" windowWidth="15168" windowHeight="5400" firstSheet="13" activeTab="15"/>
+    <workbookView activeTab="15" firstSheet="13" windowHeight="5400" windowWidth="15168" xWindow="384" yWindow="36"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="2" r:id="rId1"/>
-    <sheet name="ResetData" sheetId="13" r:id="rId2"/>
-    <sheet name="CreateMaleEmployee" sheetId="14" r:id="rId3"/>
-    <sheet name="UpdateTaxCodeAndAnnualSalary" sheetId="15" r:id="rId4"/>
-    <sheet name="ProcessPayrolFor20FourWeeklySSP" sheetId="1" r:id="rId5"/>
-    <sheet name="ProcessPayrolFor24FourWeeklySSP" sheetId="3" r:id="rId6"/>
-    <sheet name="ProcessPayrolFor28FourWeeklySSP" sheetId="4" r:id="rId7"/>
-    <sheet name="CreateLeaveRequest" sheetId="9" r:id="rId8"/>
-    <sheet name="UpdateLeaveRecord" sheetId="10" r:id="rId9"/>
-    <sheet name="AverageWeeklyEarningsTestReport" sheetId="19" r:id="rId10"/>
-    <sheet name="ProcessPayrolFor32FourWeeklySSP" sheetId="6" r:id="rId11"/>
-    <sheet name="ProcessPayrolFor36FourWeeklySSP" sheetId="7" r:id="rId12"/>
-    <sheet name="CreateLeaveRequest2" sheetId="11" r:id="rId13"/>
-    <sheet name="UpdateLeaveRecord2" sheetId="12" r:id="rId14"/>
-    <sheet name="AverageWeeklyEarningsTestReprt2" sheetId="22" r:id="rId15"/>
-    <sheet name="ProcessPayrolFor40FourWeeklySSP" sheetId="8" r:id="rId16"/>
+    <sheet name="first" r:id="rId1" sheetId="2"/>
+    <sheet name="ResetData" r:id="rId2" sheetId="13"/>
+    <sheet name="CreateMaleEmployee" r:id="rId3" sheetId="14"/>
+    <sheet name="UpdateTaxCodeAndAnnualSalary" r:id="rId4" sheetId="15"/>
+    <sheet name="ProcessPayrolFor20FourWeeklySSP" r:id="rId5" sheetId="1"/>
+    <sheet name="ProcessPayrolFor24FourWeeklySSP" r:id="rId6" sheetId="3"/>
+    <sheet name="ProcessPayrolFor28FourWeeklySSP" r:id="rId7" sheetId="4"/>
+    <sheet name="CreateLeaveRequest" r:id="rId8" sheetId="9"/>
+    <sheet name="UpdateLeaveRecord" r:id="rId9" sheetId="10"/>
+    <sheet name="AverageWeeklyEarningsTestReport" r:id="rId10" sheetId="19"/>
+    <sheet name="ProcessPayrolFor32FourWeeklySSP" r:id="rId11" sheetId="6"/>
+    <sheet name="ProcessPayrolFor36FourWeeklySSP" r:id="rId12" sheetId="7"/>
+    <sheet name="CreateLeaveRequest2" r:id="rId13" sheetId="11"/>
+    <sheet name="UpdateLeaveRecord2" r:id="rId14" sheetId="12"/>
+    <sheet name="AverageWeeklyEarningsTestReprt2" r:id="rId15" sheetId="22"/>
+    <sheet name="ProcessPayrolFor40FourWeeklySSP" r:id="rId16" sheetId="8"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="190">
   <si>
     <t>EmpName</t>
   </si>
@@ -605,6 +605,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -676,65 +677,65 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="2"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -748,10 +749,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -909,7 +910,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -918,13 +919,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -934,7 +935,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -943,7 +944,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -952,7 +953,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -962,12 +963,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -998,7 +999,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1017,7 +1018,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1029,7 +1030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1038,11 +1039,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="39.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="30.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1059,7 +1060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="27" r="2" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>174</v>
       </c>
@@ -1073,7 +1074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="22.8" r="3" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>168</v>
       </c>
@@ -1087,7 +1088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="24.6" r="4" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>170</v>
       </c>
@@ -1098,7 +1099,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="31.2" r="5" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>172</v>
       </c>
@@ -1112,7 +1113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="25.8" r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1126,7 +1127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="7" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1154,7 +1155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="9" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1168,7 +1169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="10" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1182,7 +1183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="11" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -1196,7 +1197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="12" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1210,7 +1211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="13" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1224,7 +1225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="14" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1252,7 +1253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="16" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -1280,7 +1281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="18" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -1294,7 +1295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="19" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1308,7 +1309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="20" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -1322,7 +1323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="21" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>176</v>
       </c>
@@ -1336,7 +1337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="22" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1365,13 +1366,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -1380,20 +1381,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.77734375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.77734375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="20.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -1437,7 +1438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>187</v>
       </c>
@@ -1477,16 +1478,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -1495,20 +1496,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="37.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.77734375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="33.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="37.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="20.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -1552,7 +1553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>187</v>
       </c>
@@ -1592,15 +1593,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -1609,21 +1610,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.77734375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="14.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -1667,7 +1668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>187</v>
       </c>
@@ -1707,15 +1708,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -1724,16 +1725,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="33.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="33.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="33.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.21875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1762,7 +1763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1786,12 +1787,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -1800,15 +1801,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="33.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="33.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1837,7 +1838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1861,12 +1862,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
@@ -1875,21 +1876,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.77734375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="43.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.21875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="43.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.21875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -1933,7 +1934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>187</v>
       </c>
@@ -1973,15 +1974,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
@@ -1990,21 +1991,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.21875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -2048,7 +2049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>187</v>
       </c>
@@ -2088,15 +2089,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2105,13 +2106,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2134,7 +2135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="21.6" r="2" s="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -2152,12 +2153,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2166,17 +2167,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.77734375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -2367,7 +2368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="1" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>99</v>
       </c>
@@ -2554,15 +2555,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="D2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2571,15 +2572,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2605,7 +2606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="21.6" r="2" s="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -2626,12 +2627,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -2640,19 +2641,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -2696,7 +2697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>187</v>
       </c>
@@ -2736,15 +2737,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -2753,19 +2754,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="44.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.77734375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="44.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -2809,7 +2810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>187</v>
       </c>
@@ -2849,15 +2850,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -2866,21 +2867,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.77734375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -2924,7 +2925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>187</v>
       </c>
@@ -2964,15 +2965,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -2981,16 +2982,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3022,7 +3023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3049,12 +3050,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3063,16 +3064,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.21875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.21875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3104,7 +3105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3131,6 +3132,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory SSP201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory SSP201718.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="15" firstSheet="13" windowHeight="5400" windowWidth="15168" xWindow="384" yWindow="36"/>
+    <workbookView windowHeight="5400" windowWidth="15168" xWindow="384" yWindow="36"/>
   </bookViews>
   <sheets>
     <sheet name="first" r:id="rId1" sheetId="2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="190">
   <si>
     <t>EmpName</t>
   </si>
@@ -1033,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1870,8 +1870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1985,7 +1985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory SSP201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory SSP201718.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="5400" windowWidth="15168" xWindow="384" yWindow="36"/>
+    <workbookView activeTab="13" firstSheet="13" windowHeight="5400" windowWidth="15168" xWindow="384" yWindow="36"/>
   </bookViews>
   <sheets>
     <sheet name="first" r:id="rId1" sheetId="2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="190">
   <si>
     <t>EmpName</t>
   </si>
@@ -592,13 +592,13 @@
     <t>21</t>
   </si>
   <si>
-    <t>DONT TOUCH AUTO DIRSHPP EMPLOYER</t>
-  </si>
-  <si>
     <t>DIRSSP_Payroll</t>
   </si>
   <si>
     <t>F:\\Automation_TestResults\\Payroll_StatutoryScenarios 201718\\201718 Automation TestResult For Statutory Scenarios.xlsx</t>
+  </si>
+  <si>
+    <t>DONT TOUCH AUTO DIRSSP EMPLOYER</t>
   </si>
 </sst>
 </file>
@@ -606,7 +606,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -645,6 +645,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -727,7 +733,9 @@
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
@@ -1033,7 +1041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1375,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1440,13 +1448,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
@@ -1461,7 +1469,7 @@
         <v>179</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>182</v>
@@ -1479,10 +1487,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1490,8 +1497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1555,13 +1562,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
@@ -1576,7 +1583,7 @@
         <v>162</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>183</v>
@@ -1594,7 +1601,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1604,8 +1610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1670,13 +1676,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
@@ -1691,7 +1697,7 @@
         <v>162</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>184</v>
@@ -1709,7 +1715,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1719,7 +1724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1795,7 +1800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1870,8 +1875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1936,13 +1941,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
@@ -1957,7 +1962,7 @@
         <v>180</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>185</v>
@@ -1975,7 +1980,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1985,8 +1989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2051,13 +2055,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
@@ -2072,7 +2076,7 @@
         <v>162</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>177</v>
@@ -2090,7 +2094,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2635,8 +2638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2699,13 +2702,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D2" t="s">
         <v>133</v>
@@ -2720,7 +2723,7 @@
         <v>152</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>153</v>
@@ -2738,9 +2741,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2748,8 +2751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2812,13 +2815,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
@@ -2833,7 +2836,7 @@
         <v>152</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>181</v>
@@ -2851,7 +2854,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2861,8 +2863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2927,13 +2929,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
@@ -2948,7 +2950,7 @@
         <v>152</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>158</v>
@@ -2966,7 +2968,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId1" ref="E2"/>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2976,7 +2977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory SSP201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory SSP201718.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="13" firstSheet="13" windowHeight="5400" windowWidth="15168" xWindow="384" yWindow="36"/>
+    <workbookView activeTab="13" firstSheet="11" windowHeight="5400" windowWidth="15168" xWindow="384" yWindow="36"/>
   </bookViews>
   <sheets>
     <sheet name="first" r:id="rId1" sheetId="2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="189">
   <si>
     <t>EmpName</t>
   </si>
@@ -526,12 +526,6 @@
     <t>Four Week-36</t>
   </si>
   <si>
-    <t>12/17/2017</t>
-  </si>
-  <si>
-    <t>12/12/2017</t>
-  </si>
-  <si>
     <t>Four Week-40</t>
   </si>
   <si>
@@ -599,6 +593,9 @@
   </si>
   <si>
     <t>DONT TOUCH AUTO DIRSSP EMPLOYER</t>
+  </si>
+  <si>
+    <t>12/11/2017</t>
   </si>
 </sst>
 </file>
@@ -1070,10 +1067,10 @@
     </row>
     <row customFormat="1" customHeight="1" ht="27" r="2" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
@@ -1084,10 +1081,10 @@
     </row>
     <row customFormat="1" customHeight="1" ht="22.8" r="3" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
@@ -1098,10 +1095,10 @@
     </row>
     <row customFormat="1" customHeight="1" ht="24.6" r="4" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>134</v>
@@ -1109,10 +1106,10 @@
     </row>
     <row customFormat="1" customHeight="1" ht="31.2" r="5" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>4</v>
@@ -1333,7 +1330,7 @@
     </row>
     <row customFormat="1" r="21" s="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>9</v>
@@ -1448,13 +1445,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
@@ -1466,19 +1463,19 @@
         <v>151</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>4</v>
@@ -1562,13 +1559,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
@@ -1583,10 +1580,10 @@
         <v>162</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>150</v>
@@ -1676,13 +1673,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
@@ -1697,10 +1694,10 @@
         <v>162</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>150</v>
@@ -1725,7 +1722,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1779,7 +1776,7 @@
         <v>28</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>37</v>
@@ -1800,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1854,7 +1851,7 @@
         <v>28</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>37</v>
@@ -1941,13 +1938,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
@@ -1959,19 +1956,19 @@
         <v>151</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>4</v>
@@ -2055,19 +2052,19 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>151</v>
@@ -2076,10 +2073,10 @@
         <v>162</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>150</v>
@@ -2702,13 +2699,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D2" t="s">
         <v>133</v>
@@ -2723,7 +2720,7 @@
         <v>152</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>153</v>
@@ -2815,13 +2812,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
@@ -2836,10 +2833,10 @@
         <v>152</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>150</v>
@@ -2929,13 +2926,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
@@ -2950,7 +2947,7 @@
         <v>152</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>158</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory SSP201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory SSP201718.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="189">
   <si>
     <t>EmpName</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory SSP201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory SSP201718.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="189">
   <si>
     <t>EmpName</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory SSP201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory SSP201718.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="13" firstSheet="11" windowHeight="5400" windowWidth="15168" xWindow="384" yWindow="36"/>
+    <workbookView activeTab="8" firstSheet="8" windowHeight="5400" windowWidth="15168" xWindow="384" yWindow="36"/>
   </bookViews>
   <sheets>
     <sheet name="first" r:id="rId1" sheetId="2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="189">
   <si>
     <t>EmpName</t>
   </si>
@@ -1797,7 +1797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -3056,8 +3056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory SSP201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory SSP201718.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="8" firstSheet="8" windowHeight="5400" windowWidth="15168" xWindow="384" yWindow="36"/>
+    <workbookView activeTab="13" firstSheet="12" windowHeight="5400" windowWidth="15168" xWindow="384" yWindow="36"/>
   </bookViews>
   <sheets>
     <sheet name="first" r:id="rId1" sheetId="2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="190">
   <si>
     <t>EmpName</t>
   </si>
@@ -596,6 +596,9 @@
   </si>
   <si>
     <t>12/11/2017</t>
+  </si>
+  <si>
+    <t>11 December 2017</t>
   </si>
 </sst>
 </file>
@@ -1797,8 +1800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1806,7 +1809,7 @@
     <col min="1" max="1" customWidth="true" width="36.109375" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="14.109375" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="17.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="27.77734375" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="33.6640625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="19.33203125" collapsed="true"/>
   </cols>
@@ -1850,8 +1853,8 @@
       <c r="C2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>188</v>
+      <c r="D2" s="13" t="s">
+        <v>189</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>37</v>
@@ -1865,6 +1868,7 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3056,7 +3060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory SSP201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory SSP201718.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="13" firstSheet="12" windowHeight="5400" windowWidth="15168" xWindow="384" yWindow="36"/>
+    <workbookView activeTab="14" firstSheet="12" windowHeight="5400" windowWidth="15168" xWindow="384" yWindow="36"/>
   </bookViews>
   <sheets>
     <sheet name="first" r:id="rId1" sheetId="2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="190">
   <si>
     <t>EmpName</t>
   </si>
@@ -1800,7 +1800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1876,8 +1876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory SSP201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory SSP201718.xlsx
@@ -1,35 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="14" firstSheet="12" windowHeight="5400" windowWidth="15168" xWindow="384" yWindow="36"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="13" activeTab="15"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="2"/>
-    <sheet name="ResetData" r:id="rId2" sheetId="13"/>
-    <sheet name="CreateMaleEmployee" r:id="rId3" sheetId="14"/>
-    <sheet name="UpdateTaxCodeAndAnnualSalary" r:id="rId4" sheetId="15"/>
-    <sheet name="ProcessPayrolFor20FourWeeklySSP" r:id="rId5" sheetId="1"/>
-    <sheet name="ProcessPayrolFor24FourWeeklySSP" r:id="rId6" sheetId="3"/>
-    <sheet name="ProcessPayrolFor28FourWeeklySSP" r:id="rId7" sheetId="4"/>
-    <sheet name="CreateLeaveRequest" r:id="rId8" sheetId="9"/>
-    <sheet name="UpdateLeaveRecord" r:id="rId9" sheetId="10"/>
-    <sheet name="AverageWeeklyEarningsTestReport" r:id="rId10" sheetId="19"/>
-    <sheet name="ProcessPayrolFor32FourWeeklySSP" r:id="rId11" sheetId="6"/>
-    <sheet name="ProcessPayrolFor36FourWeeklySSP" r:id="rId12" sheetId="7"/>
-    <sheet name="CreateLeaveRequest2" r:id="rId13" sheetId="11"/>
-    <sheet name="UpdateLeaveRecord2" r:id="rId14" sheetId="12"/>
-    <sheet name="AverageWeeklyEarningsTestReprt2" r:id="rId15" sheetId="22"/>
-    <sheet name="ProcessPayrolFor40FourWeeklySSP" r:id="rId16" sheetId="8"/>
+    <sheet name="first" sheetId="2" r:id="rId1"/>
+    <sheet name="ResetData" sheetId="13" r:id="rId2"/>
+    <sheet name="CreateMaleEmployee" sheetId="14" r:id="rId3"/>
+    <sheet name="UpdateTaxCodeAndAnnualSalary" sheetId="15" r:id="rId4"/>
+    <sheet name="ProcessPayrolFor20FourWeeklySSP" sheetId="1" r:id="rId5"/>
+    <sheet name="ProcessPayrolFor24FourWeeklySSP" sheetId="3" r:id="rId6"/>
+    <sheet name="ProcessPayrolFor28FourWeeklySSP" sheetId="4" r:id="rId7"/>
+    <sheet name="CreateLeaveRequest" sheetId="9" r:id="rId8"/>
+    <sheet name="UpdateLeaveRecord" sheetId="10" r:id="rId9"/>
+    <sheet name="AverageWeeklyEarningsTestReport" sheetId="19" r:id="rId10"/>
+    <sheet name="ProcessPayrolFor32FourWeeklySSP" sheetId="6" r:id="rId11"/>
+    <sheet name="ProcessPayrolFor36FourWeeklySSP" sheetId="7" r:id="rId12"/>
+    <sheet name="CreateLeaveRequest2" sheetId="11" r:id="rId13"/>
+    <sheet name="UpdateLeaveRecord2" sheetId="12" r:id="rId14"/>
+    <sheet name="AverageWeeklyEarningsTestReprt2" sheetId="22" r:id="rId15"/>
+    <sheet name="ProcessPayrolFor40FourWeeklySSP" sheetId="8" r:id="rId16"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="190">
   <si>
     <t>EmpName</t>
   </si>
@@ -526,86 +531,85 @@
     <t>Four Week-36</t>
   </si>
   <si>
+    <t>ResetData</t>
+  </si>
+  <si>
+    <t>This script deletes the existing leave record</t>
+  </si>
+  <si>
+    <t>CreateFemaleEmployee</t>
+  </si>
+  <si>
+    <t>This script creates new Female Emp via newjoiner</t>
+  </si>
+  <si>
+    <t>UpdateTaxCodeAndAnnualSalary</t>
+  </si>
+  <si>
+    <t>This script sets Taxcode, Tax basis, Annual salary and Pay frequency</t>
+  </si>
+  <si>
+    <t>ExecuteQuery</t>
+  </si>
+  <si>
+    <t>This script executes the query to accumulated ytd in payroll</t>
+  </si>
+  <si>
+    <t>AverageWeeklyEarningsTestReprt2</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH SSP AVERAGE WEEKLY EARNINGS</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH SSP AVERAGE WEEKLY EARNGS2</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>DIRSSP_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_StatutoryScenarios 201718\\201718 Automation TestResult For Statutory Scenarios.xlsx</t>
+  </si>
+  <si>
+    <t>DONT TOUCH AUTO DIRSSP EMPLOYER</t>
+  </si>
+  <si>
+    <t>12/11/2017</t>
+  </si>
+  <si>
+    <t>11 December 2017</t>
+  </si>
+  <si>
     <t>Four Week-40</t>
-  </si>
-  <si>
-    <t>ResetData</t>
-  </si>
-  <si>
-    <t>This script deletes the existing leave record</t>
-  </si>
-  <si>
-    <t>CreateFemaleEmployee</t>
-  </si>
-  <si>
-    <t>This script creates new Female Emp via newjoiner</t>
-  </si>
-  <si>
-    <t>UpdateTaxCodeAndAnnualSalary</t>
-  </si>
-  <si>
-    <t>This script sets Taxcode, Tax basis, Annual salary and Pay frequency</t>
-  </si>
-  <si>
-    <t>ExecuteQuery</t>
-  </si>
-  <si>
-    <t>This script executes the query to accumulated ytd in payroll</t>
-  </si>
-  <si>
-    <t>AverageWeeklyEarningsTestReprt2</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH SSP AVERAGE WEEKLY EARNINGS</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH SSP AVERAGE WEEKLY EARNGS2</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>DIRSSP_Payroll</t>
-  </si>
-  <si>
-    <t>F:\\Automation_TestResults\\Payroll_StatutoryScenarios 201718\\201718 Automation TestResult For Statutory Scenarios.xlsx</t>
-  </si>
-  <si>
-    <t>DONT TOUCH AUTO DIRSSP EMPLOYER</t>
-  </si>
-  <si>
-    <t>12/11/2017</t>
-  </si>
-  <si>
-    <t>11 December 2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -683,70 +687,73 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="2"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -757,10 +764,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -795,7 +802,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -828,9 +835,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -863,6 +887,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -918,7 +959,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -927,13 +968,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -943,7 +984,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -952,7 +993,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -961,7 +1002,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -971,12 +1012,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1007,7 +1048,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1026,7 +1067,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1038,23 +1079,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="39.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="30.33203125" collapsed="true"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1068,13 +1109,13 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27" r="2" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>173</v>
-      </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1082,38 +1123,38 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.8" r="3" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="24.6" r="4" s="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="31.2" r="5" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>171</v>
-      </c>
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1121,7 +1162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="25.8" r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1135,7 +1176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1149,7 +1190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1163,7 +1204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="9" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1177,7 +1218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="10" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1191,7 +1232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -1205,7 +1246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="12" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1219,7 +1260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="13" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1233,7 +1274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="14" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1247,7 +1288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1261,7 +1302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="16" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -1275,7 +1316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1289,7 +1330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="18" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -1303,7 +1344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="19" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1317,7 +1358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="20" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -1331,9 +1372,9 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="21" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>9</v>
@@ -1345,7 +1386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="22" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1359,7 +1400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1374,35 +1415,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="33.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="39.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="39.77734375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.77734375" collapsed="true"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -1446,15 +1487,15 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
@@ -1466,19 +1507,19 @@
         <v>151</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>4</v>
@@ -1486,37 +1527,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId1" ref="E2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="32.77734375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="33.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="37.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.77734375" collapsed="true"/>
+    <col min="1" max="1" width="37" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="37.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -1560,15 +1601,15 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
@@ -1583,10 +1624,10 @@
         <v>162</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>150</v>
@@ -1600,37 +1641,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId1" ref="E2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="1" max="1" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -1674,15 +1715,15 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
@@ -1697,10 +1738,10 @@
         <v>162</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>150</v>
@@ -1714,32 +1755,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId1" ref="E2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="33.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="33.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="1" max="1" width="33.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="33.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1768,7 +1809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1779,7 +1820,7 @@
         <v>28</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>37</v>
@@ -1792,29 +1833,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="27.77734375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="33.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="1" max="1" width="36.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1843,7 +1884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1854,7 +1895,7 @@
         <v>28</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>37</v>
@@ -1867,36 +1908,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="43.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.21875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="1" max="1" width="37.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="43.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="40.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -1940,15 +1981,15 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
@@ -1960,19 +2001,19 @@
         <v>151</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>4</v>
@@ -1980,37 +2021,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId1" ref="E2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="33.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="1" max="1" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -2054,21 +2095,21 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>151</v>
@@ -2077,10 +2118,10 @@
         <v>162</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>150</v>
@@ -2093,30 +2134,27 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId1" ref="E2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="1" max="1" width="36.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2139,7 +2177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21.6" r="2" s="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -2157,31 +2195,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.77734375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -2372,7 +2410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>99</v>
       </c>
@@ -2559,32 +2597,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="D2"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2610,7 +2648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21.6" r="2" s="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -2631,33 +2669,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.77734375" collapsed="true"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -2701,15 +2739,15 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D2" t="s">
         <v>133</v>
@@ -2724,7 +2762,7 @@
         <v>152</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>153</v>
@@ -2741,36 +2779,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId1" ref="E2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.77734375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="44.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="44.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -2814,15 +2852,15 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
@@ -2837,10 +2875,10 @@
         <v>152</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>150</v>
@@ -2854,37 +2892,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId1" ref="E2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="33.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.77734375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -2928,15 +2966,15 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
@@ -2951,7 +2989,7 @@
         <v>152</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>158</v>
@@ -2968,32 +3006,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId1" ref="E2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="31.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3025,7 +3063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3052,30 +3090,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.21875" collapsed="true"/>
+    <col min="1" max="1" width="35" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3107,7 +3145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3134,6 +3172,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory SSP201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory SSP201718.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="14" firstSheet="12" windowHeight="5400" windowWidth="15168" xWindow="384" yWindow="36"/>
+    <workbookView activeTab="15" firstSheet="13" windowHeight="5400" windowWidth="15165" xWindow="390" yWindow="30"/>
   </bookViews>
   <sheets>
     <sheet name="first" r:id="rId1" sheetId="2"/>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="191">
   <si>
     <t>EmpName</t>
   </si>
@@ -599,12 +604,15 @@
   </si>
   <si>
     <t>11 December 2017</t>
+  </si>
+  <si>
+    <t>Four Week-28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -748,6 +756,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -795,7 +806,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -828,9 +839,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -863,6 +891,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1045,16 +1090,16 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="39.21875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="39.28515625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="30.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="30.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1068,7 +1113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27" r="2" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="27" r="2" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>172</v>
       </c>
@@ -1082,7 +1127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.8" r="3" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="22.9" r="3" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>166</v>
       </c>
@@ -1096,7 +1141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="24.6" r="4" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="24.6" r="4" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>168</v>
       </c>
@@ -1107,7 +1152,7 @@
         <v>134</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="31.2" r="5" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="31.15" r="5" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>170</v>
       </c>
@@ -1121,7 +1166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="25.8" r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="25.9" r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1135,7 +1180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="7" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1149,7 +1194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1163,7 +1208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="9" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="9" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1177,7 +1222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="10" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="10" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1191,7 +1236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="11" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -1205,7 +1250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="12" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="12" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1219,7 +1264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="13" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="13" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1233,7 +1278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="14" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="14" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1247,7 +1292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1261,7 +1306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="16" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="16" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -1275,7 +1320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1289,7 +1334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="18" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="18" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -1303,7 +1348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="19" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="19" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1317,7 +1362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="20" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="20" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -1331,7 +1376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="21" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="21" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>174</v>
       </c>
@@ -1345,7 +1390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="22" s="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="22" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1359,7 +1404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1387,22 +1432,22 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="33.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="39.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="39.77734375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.77734375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="20.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -1446,7 +1491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>187</v>
       </c>
@@ -1501,22 +1546,22 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="32.77734375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="33.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="37.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.140625" collapsed="true"/>
     <col min="10" max="10" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="20.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -1560,7 +1605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>187</v>
       </c>
@@ -1614,23 +1659,23 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.88671875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="14.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -1674,7 +1719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>187</v>
       </c>
@@ -1728,18 +1773,18 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="33.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="33.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.5546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1768,7 +1813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1804,17 +1849,17 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="27.77734375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="33.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="36.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1843,7 +1888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1876,27 +1921,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="37.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="43.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="40.44140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="22.21875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -1940,7 +1985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>187</v>
       </c>
@@ -1990,27 +2035,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="33.88671875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.85546875" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -2054,7 +2099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>187</v>
       </c>
@@ -2108,15 +2153,15 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="36.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2139,7 +2184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21.6" r="2" s="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="21.6" r="2" s="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -2169,19 +2214,19 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.77734375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:63" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -2372,7 +2417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:63" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="1" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>99</v>
       </c>
@@ -2574,17 +2619,17 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.42578125" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2610,7 +2655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="21.6" r="2" s="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="21.6" r="2" s="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -2643,21 +2688,21 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.42578125" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -2701,7 +2746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>187</v>
       </c>
@@ -2756,21 +2801,21 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.77734375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.21875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="44.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="44.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -2814,7 +2859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>187</v>
       </c>
@@ -2865,26 +2910,26 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="33.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.77734375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.7109375" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.140625" collapsed="true"/>
     <col min="12" max="12" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -2928,7 +2973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.8" r="2" s="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>187</v>
       </c>
@@ -2942,7 +2987,7 @@
         <v>133</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>151</v>
@@ -2982,18 +3027,18 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.77734375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="34.7109375" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="31.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3025,7 +3070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3064,18 +3109,18 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.21875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3107,7 +3152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory SSP201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite Statutory SSP201718.xlsx
@@ -1,40 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="13" activeTab="15"/>
+    <workbookView windowHeight="7530" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="2" r:id="rId1"/>
-    <sheet name="ResetData" sheetId="13" r:id="rId2"/>
-    <sheet name="CreateMaleEmployee" sheetId="14" r:id="rId3"/>
-    <sheet name="UpdateTaxCodeAndAnnualSalary" sheetId="15" r:id="rId4"/>
-    <sheet name="ProcessPayrolFor20FourWeeklySSP" sheetId="1" r:id="rId5"/>
-    <sheet name="ProcessPayrolFor24FourWeeklySSP" sheetId="3" r:id="rId6"/>
-    <sheet name="ProcessPayrolFor28FourWeeklySSP" sheetId="4" r:id="rId7"/>
-    <sheet name="CreateLeaveRequest" sheetId="9" r:id="rId8"/>
-    <sheet name="UpdateLeaveRecord" sheetId="10" r:id="rId9"/>
-    <sheet name="AverageWeeklyEarningsTestReport" sheetId="19" r:id="rId10"/>
-    <sheet name="ProcessPayrolFor32FourWeeklySSP" sheetId="6" r:id="rId11"/>
-    <sheet name="ProcessPayrolFor36FourWeeklySSP" sheetId="7" r:id="rId12"/>
-    <sheet name="CreateLeaveRequest2" sheetId="11" r:id="rId13"/>
-    <sheet name="UpdateLeaveRecord2" sheetId="12" r:id="rId14"/>
-    <sheet name="AverageWeeklyEarningsTestReprt2" sheetId="22" r:id="rId15"/>
-    <sheet name="ProcessPayrolFor40FourWeeklySSP" sheetId="8" r:id="rId16"/>
+    <sheet name="first" r:id="rId1" sheetId="2"/>
+    <sheet name="ResetData" r:id="rId2" sheetId="13"/>
+    <sheet name="CreateMaleEmployee" r:id="rId3" sheetId="14"/>
+    <sheet name="UpdateTaxCodeAndAnnualSalary" r:id="rId4" sheetId="15"/>
+    <sheet name="ProcessPayrolFor20FourWeeklySSP" r:id="rId5" sheetId="1"/>
+    <sheet name="ProcessPayrolFor24FourWeeklySSP" r:id="rId6" sheetId="3"/>
+    <sheet name="ProcessPayrolFor28FourWeeklySSP" r:id="rId7" sheetId="4"/>
+    <sheet name="CreateLeaveRequest" r:id="rId8" sheetId="9"/>
+    <sheet name="UpdateLeaveRecord" r:id="rId9" sheetId="10"/>
+    <sheet name="AverageWeeklyEarningsTestReport" r:id="rId10" sheetId="19"/>
+    <sheet name="ProcessPayrolFor32FourWeeklySSP" r:id="rId11" sheetId="6"/>
+    <sheet name="ProcessPayrolFor36FourWeeklySSP" r:id="rId12" sheetId="7"/>
+    <sheet name="CreateLeaveRequest2" r:id="rId13" sheetId="11"/>
+    <sheet name="UpdateLeaveRecord2" r:id="rId14" sheetId="12"/>
+    <sheet name="AverageWeeklyEarningsTestReprt2" r:id="rId15" sheetId="22"/>
+    <sheet name="ProcessPayrolFor40FourWeeklySSP" r:id="rId16" sheetId="8"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="191">
   <si>
     <t>EmpName</t>
   </si>
@@ -531,6 +531,9 @@
     <t>Four Week-36</t>
   </si>
   <si>
+    <t>Four Week-40</t>
+  </si>
+  <si>
     <t>ResetData</t>
   </si>
   <si>
@@ -603,13 +606,14 @@
     <t>11 December 2017</t>
   </si>
   <si>
-    <t>Four Week-40</t>
+    <t>Four Week-28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -687,67 +691,67 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="2"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -764,10 +768,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -802,7 +806,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -854,7 +858,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -959,7 +963,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -968,13 +972,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -984,7 +988,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -993,7 +997,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1002,7 +1006,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1012,12 +1016,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1048,7 +1052,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1067,7 +1071,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1079,20 +1083,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="39.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="30.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1109,12 +1113,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27" r="2" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
@@ -1123,12 +1127,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="22.9" r="3" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
@@ -1137,23 +1141,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24.6" r="4" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.15" r="5" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>4</v>
@@ -1162,7 +1166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="25.9" r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1176,7 +1180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1204,7 +1208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="9" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1218,7 +1222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="10" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1232,7 +1236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -1246,7 +1250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="12" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1260,7 +1264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="13" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1274,7 +1278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="14" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1302,7 +1306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="16" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -1330,7 +1334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="18" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -1344,7 +1348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="19" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1358,7 +1362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="20" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -1372,9 +1376,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="21" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>9</v>
@@ -1386,7 +1390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="22" s="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1415,13 +1419,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -1430,20 +1434,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="20.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -1487,15 +1491,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
@@ -1507,19 +1511,19 @@
         <v>151</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>4</v>
@@ -1527,15 +1531,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId1" ref="E2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1544,20 +1548,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="37.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="20.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -1601,15 +1605,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
@@ -1624,10 +1628,10 @@
         <v>162</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>150</v>
@@ -1641,14 +1645,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId1" ref="E2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1657,21 +1661,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="14.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -1715,15 +1719,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
@@ -1738,10 +1742,10 @@
         <v>162</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>150</v>
@@ -1755,14 +1759,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId1" ref="E2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1771,16 +1775,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="33.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1809,7 +1813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1820,7 +1824,7 @@
         <v>28</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>37</v>
@@ -1833,12 +1837,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1847,15 +1851,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1884,7 +1888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1895,7 +1899,7 @@
         <v>28</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>37</v>
@@ -1908,36 +1912,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="43.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="40.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="40.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -1981,15 +1985,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
@@ -2001,19 +2005,19 @@
         <v>151</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>150</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>4</v>
@@ -2021,37 +2025,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId1" ref="E2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -2095,21 +2099,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>151</v>
@@ -2118,10 +2122,10 @@
         <v>162</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>150</v>
@@ -2134,12 +2138,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <hyperlinks>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId1" ref="E2"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2148,13 +2155,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2177,7 +2184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.6" r="2" s="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -2195,12 +2202,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2209,17 +2216,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -2410,7 +2417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:63" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="1" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>99</v>
       </c>
@@ -2597,15 +2604,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="D2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2614,15 +2621,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2648,7 +2655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.6" r="2" s="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -2669,12 +2676,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2683,19 +2690,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -2739,15 +2746,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D2" t="s">
         <v>133</v>
@@ -2762,7 +2769,7 @@
         <v>152</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>153</v>
@@ -2779,36 +2786,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId1" ref="E2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="44.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="44.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -2852,15 +2859,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
@@ -2875,10 +2882,10 @@
         <v>152</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>150</v>
@@ -2892,37 +2899,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId1" ref="E2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -2966,21 +2973,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>151</v>
@@ -2989,7 +2996,7 @@
         <v>152</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>158</v>
@@ -3006,14 +3013,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a1Fb0000005uTn1" r:id="rId1" ref="E2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3022,16 +3029,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3063,7 +3070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3090,12 +3097,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3104,16 +3111,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3145,7 +3152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -3172,6 +3179,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>